--- a/data copy/Motivation im Onlineunterricht(1-50)_Gamsjaeger.xlsx
+++ b/data copy/Motivation im Onlineunterricht(1-50)_Gamsjaeger.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Dropbox\Python\dataanalysisebert\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF692CC-6EC3-46D0-834C-F00EC846A4E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA376E2-F072-4D39-9ED3-00E182D8D98A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,15 +30,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Start time</t>
-  </si>
-  <si>
-    <t>Completion time</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -380,6 +371,15 @@
   </si>
   <si>
     <t>bautechnikum</t>
+  </si>
+  <si>
+    <t>Fertigstellungszeit</t>
+  </si>
+  <si>
+    <t>Startzeit</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -420,7 +420,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -525,10 +525,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -551,9 +551,9 @@
   <autoFilter ref="A1:AI51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Startzeit" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fertigstellungszeit" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="E-Mail" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="30"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schulform" dataDxfId="29"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Alter" dataDxfId="28"/>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,106 +904,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="AH1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AI1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -1017,20 +1017,20 @@
         <v>44267.408622685201</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1048,49 +1048,49 @@
         <v>5</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI2" s="3"/>
     </row>
@@ -1116,20 +1116,20 @@
         <v>44267.409166666701</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1147,43 +1147,43 @@
         <v>3</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI3" s="3"/>
     </row>
@@ -1209,20 +1209,20 @@
         <v>44267.409930555601</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1240,47 +1240,47 @@
         <v>2</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AD4" s="3"/>
       <c r="AE4">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI4" s="3"/>
     </row>
@@ -1306,20 +1306,20 @@
         <v>44267.410289351901</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1337,19 +1337,19 @@
         <v>5</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -1357,7 +1357,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI5" s="3"/>
     </row>
@@ -1380,21 +1380,21 @@
         <v>44267.410902777803</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J6">
         <v>4</v>
       </c>
@@ -1411,49 +1411,49 @@
         <v>4</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD6" s="3"/>
       <c r="AE6">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI6" s="3"/>
     </row>
@@ -1479,20 +1479,20 @@
         <v>44267.411469907398</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1510,47 +1510,47 @@
         <v>2</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI7" s="3"/>
     </row>
@@ -1576,20 +1576,20 @@
         <v>44267.411805555603</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1607,47 +1607,47 @@
         <v>3</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AD8" s="3"/>
       <c r="AE8">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI8" s="3"/>
     </row>
@@ -1673,20 +1673,20 @@
         <v>44267.412465277797</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1704,49 +1704,49 @@
         <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="3"/>
       <c r="AE9">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI9" s="3"/>
     </row>
@@ -1772,20 +1772,20 @@
         <v>44267.413553240702</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1803,47 +1803,47 @@
         <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI10" s="3"/>
     </row>
@@ -1869,21 +1869,21 @@
         <v>44267.413807870398</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J11">
         <v>4</v>
       </c>
@@ -1900,47 +1900,47 @@
         <v>4</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD11" s="3"/>
       <c r="AE11">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI11" s="3"/>
     </row>
@@ -1966,20 +1966,20 @@
         <v>44267.419050925899</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1997,49 +1997,49 @@
         <v>5</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AD12" s="3"/>
       <c r="AE12">
@@ -2049,10 +2049,10 @@
         <v>1</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI12" s="3"/>
     </row>
@@ -2067,20 +2067,20 @@
         <v>44267.419270833299</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -2098,52 +2098,52 @@
         <v>4</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AE13">
         <v>4</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI13" s="3"/>
     </row>
@@ -2168,20 +2168,20 @@
         <v>44267.420173611099</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -2199,47 +2199,47 @@
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD14" s="3"/>
       <c r="AE14">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI14" s="3"/>
     </row>
@@ -2265,20 +2265,20 @@
         <v>44267.422581018502</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2296,49 +2296,49 @@
         <v>4</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AD15" s="3"/>
       <c r="AE15">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI15" s="3"/>
     </row>
@@ -2364,20 +2364,20 @@
         <v>44267.4230439815</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2395,43 +2395,43 @@
         <v>2</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI16" s="3"/>
     </row>
@@ -2459,20 +2459,20 @@
         <v>44267.423981481501</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2490,52 +2490,52 @@
         <v>4</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AD17" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AE17">
         <v>2</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI17" s="3"/>
     </row>
@@ -2560,20 +2560,20 @@
         <v>44267.424699074101</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2591,49 +2591,49 @@
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD18" s="3"/>
       <c r="AE18">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI18" s="3"/>
     </row>
@@ -2659,20 +2659,20 @@
         <v>44267.424756944398</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -2690,47 +2690,47 @@
         <v>4</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI19" s="3"/>
     </row>
@@ -2756,78 +2756,78 @@
         <v>44267.426157407397</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="V20" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD20" s="3"/>
       <c r="AE20">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI20" s="3"/>
     </row>
@@ -2853,20 +2853,20 @@
         <v>44267.431550925903</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2884,47 +2884,47 @@
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI21" s="3"/>
     </row>
@@ -2950,20 +2950,20 @@
         <v>44267.441377314797</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2981,47 +2981,47 @@
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD22" s="3"/>
       <c r="AE22">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI22" s="3"/>
     </row>
@@ -3047,20 +3047,20 @@
         <v>44267.442025463002</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3078,52 +3078,52 @@
         <v>5</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AD23" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE23">
         <v>5</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI23" s="3"/>
     </row>
@@ -3148,20 +3148,20 @@
         <v>44267.4625115741</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3179,47 +3179,47 @@
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AD24" s="3"/>
       <c r="AE24">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI24" s="3"/>
     </row>
@@ -3245,20 +3245,20 @@
         <v>44267.464756944399</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -3273,49 +3273,49 @@
         <v>2</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AD25" s="3"/>
       <c r="AE25">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI25" s="3"/>
     </row>
@@ -3341,20 +3341,20 @@
         <v>44267.4682523148</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3372,47 +3372,47 @@
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AD26" s="3"/>
       <c r="AE26">
@@ -3422,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="AG26" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI26" s="3"/>
     </row>
@@ -3440,20 +3440,20 @@
         <v>44267.4690162037</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -3471,47 +3471,47 @@
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AD27" s="3"/>
       <c r="AE27">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI27" s="3"/>
     </row>
@@ -3537,20 +3537,20 @@
         <v>44267.475092592598</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -3568,47 +3568,47 @@
         <v>5</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AD28" s="3"/>
       <c r="AE28">
@@ -3618,10 +3618,10 @@
         <v>1</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI28" s="3"/>
     </row>
@@ -3636,20 +3636,20 @@
         <v>44267.475173611099</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -3667,49 +3667,49 @@
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AD29" s="3"/>
       <c r="AE29">
@@ -3719,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="AG29" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI29" s="3"/>
     </row>
@@ -3737,20 +3737,20 @@
         <v>44267.479722222197</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -3768,47 +3768,47 @@
         <v>5</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AD30" s="3"/>
       <c r="AE30">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI30" s="3"/>
     </row>
@@ -3834,20 +3834,20 @@
         <v>44267.4816782407</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J31">
         <v>4</v>
@@ -3879,7 +3879,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AD31" s="3"/>
       <c r="AE31">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI31" s="3"/>
     </row>
@@ -3905,20 +3905,20 @@
         <v>44267.4922800926</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -3936,47 +3936,47 @@
         <v>3</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AD32" s="3"/>
       <c r="AE32">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI32" s="3"/>
     </row>
@@ -4002,20 +4002,20 @@
         <v>44267.501736111102</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -4033,49 +4033,49 @@
         <v>4</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB33" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="3"/>
       <c r="AE33">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI33" s="3"/>
     </row>
@@ -4101,20 +4101,20 @@
         <v>44267.504768518498</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -4132,47 +4132,47 @@
         <v>3</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AD34" s="3"/>
       <c r="AE34">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="AG34" s="3"/>
       <c r="AH34" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI34" s="3"/>
     </row>
@@ -4198,20 +4198,20 @@
         <v>44267.5084837963</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -4229,47 +4229,47 @@
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA35" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD35" s="3"/>
       <c r="AE35">
@@ -4279,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="AG35" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AH35" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI35" s="3"/>
     </row>
@@ -4297,17 +4297,17 @@
         <v>44267.509212962999</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36">
@@ -4326,47 +4326,47 @@
         <v>5</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD36" s="3"/>
       <c r="AE36">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="AG36" s="3"/>
       <c r="AH36" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI36" s="3"/>
     </row>
@@ -4392,78 +4392,78 @@
         <v>44267.535185185203</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J37">
-        <v>4</v>
-      </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="L37">
-        <v>5</v>
-      </c>
-      <c r="M37">
-        <v>5</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="P37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD37" s="3"/>
       <c r="AE37">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="AG37" s="3"/>
       <c r="AH37" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI37" s="3"/>
     </row>
@@ -4489,20 +4489,20 @@
         <v>44267.543055555601</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4520,45 +4520,45 @@
         <v>3</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AD38" s="3"/>
       <c r="AE38">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="AG38" s="3"/>
       <c r="AH38" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI38" s="3"/>
     </row>
@@ -4584,20 +4584,20 @@
         <v>44267.5447569444</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -4615,49 +4615,49 @@
         <v>2</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AD39" s="3"/>
       <c r="AE39">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI39" s="3"/>
     </row>
@@ -4683,20 +4683,20 @@
         <v>44267.557013888902</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -4714,49 +4714,49 @@
         <v>3</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB40" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AC40" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AD40" s="3"/>
       <c r="AE40">
@@ -4766,10 +4766,10 @@
         <v>1</v>
       </c>
       <c r="AG40" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AH40" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI40" s="3"/>
     </row>
@@ -4784,21 +4784,21 @@
         <v>44267.630671296298</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J41">
         <v>3</v>
       </c>
@@ -4815,45 +4815,45 @@
         <v>5</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA41" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD41" s="3"/>
       <c r="AE41">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="AG41" s="3"/>
       <c r="AH41" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI41" s="3"/>
     </row>
@@ -4879,20 +4879,20 @@
         <v>44267.667685185203</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4910,47 +4910,47 @@
         <v>3</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AD42" s="3"/>
       <c r="AE42">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI42" s="3"/>
     </row>
@@ -4976,20 +4976,20 @@
         <v>44267.764687499999</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -5007,47 +5007,47 @@
         <v>5</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA43" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD43" s="3"/>
       <c r="AE43">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="AG43" s="3"/>
       <c r="AH43" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI43" s="3"/>
     </row>
@@ -5073,17 +5073,17 @@
         <v>44268.2583101852</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44">
@@ -5102,48 +5102,48 @@
         <v>4</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB44" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AD44" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AE44">
         <v>3</v>
@@ -5152,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="AG44" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AH44" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI44" s="3"/>
     </row>
@@ -5170,21 +5170,21 @@
         <v>44268.505995370397</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J45">
         <v>5</v>
       </c>
@@ -5198,47 +5198,47 @@
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA45" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AD45" s="3"/>
       <c r="AE45">
@@ -5248,10 +5248,10 @@
         <v>3</v>
       </c>
       <c r="AG45" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH45" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI45" s="3"/>
     </row>
@@ -5266,20 +5266,20 @@
         <v>44268.652523148099</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -5297,47 +5297,47 @@
         <v>5</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W46" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AD46" s="3"/>
       <c r="AE46">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="AG46" s="3"/>
       <c r="AH46" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI46" s="3"/>
     </row>
@@ -5363,20 +5363,20 @@
         <v>44268.962997685201</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -5394,47 +5394,47 @@
         <v>4</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AD47" s="3"/>
       <c r="AE47">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="AG47" s="3"/>
       <c r="AH47" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI47" s="3"/>
     </row>
@@ -5460,21 +5460,21 @@
         <v>44269.789953703701</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J48">
         <v>3</v>
       </c>
@@ -5491,47 +5491,47 @@
         <v>3</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AD48" s="3"/>
       <c r="AE48">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="AG48" s="3"/>
       <c r="AH48" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI48" s="3"/>
     </row>
@@ -5557,20 +5557,20 @@
         <v>44270.036018518498</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -5588,45 +5588,45 @@
         <v>4</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AD49" s="3"/>
       <c r="AE49">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="AG49" s="3"/>
       <c r="AH49" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI49" s="3"/>
     </row>
@@ -5652,20 +5652,20 @@
         <v>44270.322581018503</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -5683,49 +5683,49 @@
         <v>5</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AA50" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB50" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AD50" s="3"/>
       <c r="AE50">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="AG50" s="3"/>
       <c r="AH50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI50" s="3"/>
     </row>
@@ -5751,21 +5751,21 @@
         <v>44270.797002314801</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="J51">
         <v>3</v>
       </c>
@@ -5782,52 +5782,52 @@
         <v>3</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA51" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB51" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AD51" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AE51">
         <v>2</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="AG51" s="3"/>
       <c r="AH51" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI51" s="3"/>
     </row>
